--- a/server/docs/노크_통신규약_최지수_v3.3.xlsx
+++ b/server/docs/노크_통신규약_최지수_v3.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="645" windowWidth="15960" windowHeight="13140" tabRatio="927" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="645" windowWidth="15960" windowHeight="13140" tabRatio="927" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="작성방법" sheetId="1" r:id="rId1"/>
@@ -15,40 +15,41 @@
     <sheet name="신고하기" sheetId="76" r:id="rId6"/>
     <sheet name="찜하기" sheetId="77" r:id="rId7"/>
     <sheet name="계정 휴면" sheetId="83" r:id="rId8"/>
-    <sheet name="연결끊기" sheetId="78" r:id="rId9"/>
-    <sheet name="공지 이벤트" sheetId="73" r:id="rId10"/>
-    <sheet name="문의보기" sheetId="85" r:id="rId11"/>
-    <sheet name="문의하기" sheetId="75" r:id="rId12"/>
-    <sheet name="열쇠 조회" sheetId="70" r:id="rId13"/>
-    <sheet name="열쇠 변동" sheetId="71" r:id="rId14"/>
-    <sheet name="퀴즈 조회" sheetId="68" r:id="rId15"/>
-    <sheet name="퀴즈답 저장" sheetId="69" r:id="rId16"/>
-    <sheet name="회원가입" sheetId="65" r:id="rId17"/>
-    <sheet name="닉네임 중복 확인" sheetId="72" r:id="rId18"/>
-    <sheet name="로그인" sheetId="67" r:id="rId19"/>
-    <sheet name="성향테스트" sheetId="82" r:id="rId20"/>
-    <sheet name="성향검사" sheetId="14" r:id="rId21"/>
-    <sheet name="내유형보기" sheetId="17" r:id="rId22"/>
-    <sheet name="유형상세보기" sheetId="84" r:id="rId23"/>
-    <sheet name="다른유형보기" sheetId="49" r:id="rId24"/>
-    <sheet name="오늘의 노크상대" sheetId="31" r:id="rId25"/>
-    <sheet name="노크상대 새로받기" sheetId="51" r:id="rId26"/>
-    <sheet name="노크내역" sheetId="52" r:id="rId27"/>
-    <sheet name="서로에게 노크내역 더보기" sheetId="53" r:id="rId28"/>
-    <sheet name="나에게 노크내역 더보기" sheetId="54" r:id="rId29"/>
-    <sheet name="너에게 노크내역 더보기" sheetId="55" r:id="rId30"/>
-    <sheet name="지나간 노크내역 더보기" sheetId="56" r:id="rId31"/>
-    <sheet name="프로필보기" sheetId="57" r:id="rId32"/>
-    <sheet name="프로필 수정" sheetId="38" r:id="rId33"/>
-    <sheet name="수락하기" sheetId="62" r:id="rId34"/>
-    <sheet name="노크하기" sheetId="63" r:id="rId35"/>
+    <sheet name="계정 탈퇴" sheetId="86" r:id="rId9"/>
+    <sheet name="연결끊기" sheetId="78" r:id="rId10"/>
+    <sheet name="공지 이벤트" sheetId="73" r:id="rId11"/>
+    <sheet name="문의보기" sheetId="85" r:id="rId12"/>
+    <sheet name="문의하기" sheetId="75" r:id="rId13"/>
+    <sheet name="열쇠 조회" sheetId="70" r:id="rId14"/>
+    <sheet name="열쇠 변동" sheetId="71" r:id="rId15"/>
+    <sheet name="퀴즈 조회" sheetId="68" r:id="rId16"/>
+    <sheet name="퀴즈답 저장" sheetId="69" r:id="rId17"/>
+    <sheet name="회원가입" sheetId="65" r:id="rId18"/>
+    <sheet name="닉네임 중복 확인" sheetId="72" r:id="rId19"/>
+    <sheet name="로그인" sheetId="67" r:id="rId20"/>
+    <sheet name="성향테스트" sheetId="82" r:id="rId21"/>
+    <sheet name="성향검사" sheetId="14" r:id="rId22"/>
+    <sheet name="내유형보기" sheetId="17" r:id="rId23"/>
+    <sheet name="유형상세보기" sheetId="84" r:id="rId24"/>
+    <sheet name="다른유형보기" sheetId="49" r:id="rId25"/>
+    <sheet name="오늘의 노크상대" sheetId="31" r:id="rId26"/>
+    <sheet name="노크상대 새로받기" sheetId="51" r:id="rId27"/>
+    <sheet name="노크내역" sheetId="52" r:id="rId28"/>
+    <sheet name="서로에게 노크내역 더보기" sheetId="53" r:id="rId29"/>
+    <sheet name="나에게 노크내역 더보기" sheetId="54" r:id="rId30"/>
+    <sheet name="너에게 노크내역 더보기" sheetId="55" r:id="rId31"/>
+    <sheet name="지나간 노크내역 더보기" sheetId="56" r:id="rId32"/>
+    <sheet name="프로필보기" sheetId="57" r:id="rId33"/>
+    <sheet name="프로필 수정" sheetId="38" r:id="rId34"/>
+    <sheet name="수락하기" sheetId="62" r:id="rId35"/>
+    <sheet name="노크하기" sheetId="63" r:id="rId36"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="515">
   <si>
     <t>요청 메세지 규격</t>
   </si>
@@ -1561,15 +1562,6 @@
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[key : profile / value : &lt;-- 파일 첨부 --&gt; ]
-[key : job / value : "English teacher"]
-[key : height / value : "186"]
-[key : fit / value : "마른"]
-[key : faith / value : "기독교"]
-[key : hobby / value : "농구"]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2881,6 +2873,19 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key : profile / value : &lt;-- 파일 첨부 --&gt; ]
+[key : job / value : "English teacher"]
+[key : height / value : 186]
+[key : fit / value : 1]
+[key : faith / value : 1]
+[key : hobby / value : "농구"]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 탈퇴</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3608,7 +3613,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4129,6 +4134,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5674,6 +5685,141 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:IU10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
+    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A9" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A10" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:IU21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5692,21 +5838,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -5730,11 +5876,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -5812,11 +5958,11 @@
       <c r="A13" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
     </row>
     <row r="17" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="21" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -5836,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5859,28 +6005,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C3" s="169"/>
       <c r="D3" s="17"/>
@@ -5890,25 +6036,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="170" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" s="169"/>
       <c r="D4" s="169"/>
     </row>
     <row r="5" spans="1:4" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="170" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C6" s="169"/>
       <c r="D6" s="169"/>
@@ -5928,7 +6074,7 @@
     <row r="8" spans="1:4" s="15" customFormat="1" ht="50.25" customHeight="1">
       <c r="A8" s="60"/>
       <c r="B8" s="173" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="173"/>
@@ -5937,71 +6083,71 @@
       <c r="A9" s="60"/>
       <c r="B9" s="173"/>
       <c r="C9" s="172" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="173" t="s">
         <v>498</v>
-      </c>
-      <c r="D9" s="173" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="60"/>
       <c r="B10" s="173"/>
       <c r="C10" s="172" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="173" t="s">
         <v>500</v>
-      </c>
-      <c r="D10" s="173" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="60"/>
       <c r="B11" s="173"/>
       <c r="C11" s="172" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="173" t="s">
         <v>502</v>
-      </c>
-      <c r="D11" s="173" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="173"/>
       <c r="C12" s="172" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="173" t="s">
         <v>504</v>
-      </c>
-      <c r="D12" s="173" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="60"/>
       <c r="B13" s="173"/>
       <c r="C13" s="172" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" s="173" t="s">
         <v>506</v>
-      </c>
-      <c r="D13" s="173" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="60"/>
       <c r="B14" s="173"/>
       <c r="C14" s="172" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="173" t="s">
         <v>508</v>
-      </c>
-      <c r="D14" s="173" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="150" customHeight="1">
       <c r="A15" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="178" t="s">
-        <v>510</v>
-      </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="B15" s="180" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6019,7 +6165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6042,21 +6188,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -6103,7 +6249,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
@@ -6112,19 +6258,19 @@
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="188" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="81"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -6152,11 +6298,11 @@
       <c r="A12" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6175,7 +6321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6198,21 +6344,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -6236,11 +6382,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -6267,7 +6413,7 @@
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="60"/>
       <c r="B8" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="64" t="s">
@@ -6278,11 +6424,11 @@
       <c r="A9" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="178" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="B9" s="180" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
     </row>
     <row r="13" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="17" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -6302,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6325,28 +6471,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C3" s="160"/>
       <c r="D3" s="17"/>
@@ -6356,7 +6502,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="161" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" s="160"/>
       <c r="D4" s="160"/>
@@ -6366,70 +6512,70 @@
         <v>24</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="161" t="s">
         <v>429</v>
-      </c>
-      <c r="B6" s="161" t="s">
-        <v>430</v>
       </c>
       <c r="C6" s="160"/>
       <c r="D6" s="160"/>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="162" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="161" t="s">
         <v>431</v>
-      </c>
-      <c r="B7" s="161" t="s">
-        <v>432</v>
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="162"/>
       <c r="B8" s="161" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="24">
       <c r="A9" s="162"/>
       <c r="B9" s="161" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="93" customHeight="1">
       <c r="A10" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="188" t="s">
         <v>438</v>
       </c>
-      <c r="B10" s="186" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="160"/>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
     </row>
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="13" t="s">
@@ -6457,11 +6603,11 @@
       <c r="A14" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="181" t="s">
-        <v>440</v>
-      </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
+      <c r="B14" s="183" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6480,7 +6626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6503,21 +6649,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -6541,11 +6687,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -6613,11 +6759,11 @@
       <c r="A12" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
     </row>
     <row r="16" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="20" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -6637,7 +6783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6660,21 +6806,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -6723,26 +6869,26 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="129" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="186" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="187"/>
+      <c r="B8" s="188" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="189"/>
       <c r="D8" s="81"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -6770,11 +6916,11 @@
       <c r="A12" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6793,7 +6939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6816,21 +6962,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -6888,21 +7034,21 @@
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="186" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="187"/>
+      <c r="B8" s="188" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="189"/>
       <c r="D8" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -6930,11 +7076,11 @@
       <c r="A12" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6953,7 +7099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6976,21 +7122,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -7014,11 +7160,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -7046,11 +7192,11 @@
       <c r="A8" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="181" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="183"/>
+      <c r="B8" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="184"/>
+      <c r="D8" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7058,175 +7204,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IU13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
-    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="77"/>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="186" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="77"/>
-    </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="175" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-    </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-    </row>
-    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A11" s="184" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A12" s="188"/>
-      <c r="B12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A13" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="181" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -7244,11 +7221,11 @@
   </sheetPr>
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="18" customHeight="1"/>
@@ -7260,15 +7237,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="29.1" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="1:256" ht="20.85" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -7287,11 +7264,11 @@
         <v>47</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="20.85" customHeight="1">
@@ -7313,7 +7290,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="20.85" customHeight="1">
@@ -7333,7 +7310,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -8121,13 +8098,13 @@
     <row r="7" spans="1:256" ht="20.85" customHeight="1">
       <c r="A7" s="92"/>
       <c r="B7" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
@@ -8389,7 +8366,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>81</v>
@@ -8655,13 +8632,13 @@
     <row r="9" spans="1:256" ht="20.85" customHeight="1">
       <c r="A9" s="55"/>
       <c r="B9" s="109" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>420</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>421</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="125"/>
@@ -8922,7 +8899,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>36</v>
@@ -9190,7 +9167,7 @@
         <v>96</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>107</v>
@@ -11124,7 +11101,7 @@
         <v>261</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>259</v>
@@ -11390,7 +11367,7 @@
         <v>260</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>264</v>
@@ -12187,13 +12164,13 @@
     <row r="26" spans="1:256" ht="20.45" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="115" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>512</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>513</v>
       </c>
       <c r="E26" s="7">
         <v>22</v>
@@ -13286,7 +13263,7 @@
     </row>
     <row r="32" spans="1:256" ht="20.45" customHeight="1">
       <c r="A32" s="102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="112" t="s">
         <v>73</v>
@@ -13406,6 +13383,175 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IU13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
+    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A7" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="77"/>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="188" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="189"/>
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+    </row>
+    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A11" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A12" s="190"/>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A13" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13429,28 +13575,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="17"/>
@@ -13469,25 +13615,25 @@
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="104"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -13500,7 +13646,7 @@
       <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="199" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="104" t="s">
@@ -13512,54 +13658,54 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="198"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="104"/>
       <c r="C11" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A12" s="198"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="104"/>
       <c r="C12" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A13" s="198"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="104"/>
       <c r="C13" s="23" t="s">
         <v>199</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="260.25" customHeight="1">
       <c r="A14" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="181" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
+      <c r="B14" s="183" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13580,7 +13726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13604,21 +13750,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -13667,7 +13813,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -13675,7 +13821,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="105"/>
       <c r="B8" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="117"/>
       <c r="D8" s="23"/>
@@ -13683,7 +13829,7 @@
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="105"/>
       <c r="B9" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="117"/>
       <c r="D9" s="23"/>
@@ -13691,7 +13837,7 @@
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="105"/>
       <c r="B10" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="117"/>
       <c r="D10" s="23"/>
@@ -13699,7 +13845,7 @@
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="105"/>
       <c r="B11" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C11" s="117"/>
       <c r="D11" s="23"/>
@@ -13707,7 +13853,7 @@
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="105"/>
       <c r="B12" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="117"/>
       <c r="D12" s="23"/>
@@ -13715,7 +13861,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1">
       <c r="A13" s="105"/>
       <c r="B13" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="117"/>
       <c r="D13" s="23"/>
@@ -13723,7 +13869,7 @@
     <row r="14" spans="1:4" ht="21" customHeight="1">
       <c r="A14" s="105"/>
       <c r="B14" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="23"/>
@@ -13731,7 +13877,7 @@
     <row r="15" spans="1:4" ht="21" customHeight="1">
       <c r="A15" s="105"/>
       <c r="B15" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="117"/>
       <c r="D15" s="23"/>
@@ -13739,7 +13885,7 @@
     <row r="16" spans="1:4" ht="21" customHeight="1">
       <c r="A16" s="105"/>
       <c r="B16" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" s="117"/>
       <c r="D16" s="23"/>
@@ -13747,7 +13893,7 @@
     <row r="17" spans="1:4" ht="21" customHeight="1">
       <c r="A17" s="105"/>
       <c r="B17" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="117"/>
       <c r="D17" s="23"/>
@@ -13755,7 +13901,7 @@
     <row r="18" spans="1:4" ht="21" customHeight="1">
       <c r="A18" s="105"/>
       <c r="B18" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="117"/>
       <c r="D18" s="23"/>
@@ -13763,7 +13909,7 @@
     <row r="19" spans="1:4" ht="21" customHeight="1">
       <c r="A19" s="105"/>
       <c r="B19" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="23"/>
@@ -13771,7 +13917,7 @@
     <row r="20" spans="1:4" ht="21" customHeight="1">
       <c r="A20" s="105"/>
       <c r="B20" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C20" s="117"/>
       <c r="D20" s="23"/>
@@ -13779,7 +13925,7 @@
     <row r="21" spans="1:4" ht="21" customHeight="1">
       <c r="A21" s="105"/>
       <c r="B21" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C21" s="117"/>
       <c r="D21" s="23"/>
@@ -13787,7 +13933,7 @@
     <row r="22" spans="1:4" ht="21" customHeight="1">
       <c r="A22" s="105"/>
       <c r="B22" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C22" s="117"/>
       <c r="D22" s="23"/>
@@ -13795,7 +13941,7 @@
     <row r="23" spans="1:4" ht="21" customHeight="1">
       <c r="A23" s="105"/>
       <c r="B23" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" s="117"/>
       <c r="D23" s="23"/>
@@ -13803,7 +13949,7 @@
     <row r="24" spans="1:4" ht="21" customHeight="1">
       <c r="A24" s="105"/>
       <c r="B24" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C24" s="117"/>
       <c r="D24" s="23"/>
@@ -13811,7 +13957,7 @@
     <row r="25" spans="1:4" ht="21" customHeight="1">
       <c r="A25" s="105"/>
       <c r="B25" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="23"/>
@@ -13819,7 +13965,7 @@
     <row r="26" spans="1:4" ht="21" customHeight="1">
       <c r="A26" s="105"/>
       <c r="B26" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="117"/>
       <c r="D26" s="23"/>
@@ -13827,7 +13973,7 @@
     <row r="27" spans="1:4" ht="21" customHeight="1">
       <c r="A27" s="105"/>
       <c r="B27" s="116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="117"/>
       <c r="D27" s="23"/>
@@ -13835,7 +13981,7 @@
     <row r="28" spans="1:4" ht="21" customHeight="1">
       <c r="A28" s="105"/>
       <c r="B28" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C28" s="117"/>
       <c r="D28" s="23"/>
@@ -13843,7 +13989,7 @@
     <row r="29" spans="1:4" ht="21" customHeight="1">
       <c r="A29" s="105"/>
       <c r="B29" s="116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C29" s="117"/>
       <c r="D29" s="23"/>
@@ -13851,7 +13997,7 @@
     <row r="30" spans="1:4" ht="21" customHeight="1">
       <c r="A30" s="105"/>
       <c r="B30" s="116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="117"/>
       <c r="D30" s="23"/>
@@ -13859,7 +14005,7 @@
     <row r="31" spans="1:4" ht="21" customHeight="1">
       <c r="A31" s="105"/>
       <c r="B31" s="116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="117"/>
       <c r="D31" s="23"/>
@@ -13868,19 +14014,19 @@
       <c r="A32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="186" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="187"/>
+      <c r="B32" s="188" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="189"/>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
     </row>
     <row r="34" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A34" s="13" t="s">
@@ -13908,11 +14054,11 @@
       <c r="A36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="183"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13931,7 +14077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13955,28 +14101,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>90</v>
@@ -13997,25 +14143,25 @@
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -14028,7 +14174,7 @@
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="205" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -14040,7 +14186,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="204"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="30" t="s">
         <v>92</v>
       </c>
@@ -14050,27 +14196,27 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="204"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A12" s="204"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C12" s="127"/>
       <c r="D12" s="131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A13" s="205"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="121"/>
       <c r="C13" s="119"/>
       <c r="D13" s="122"/>
@@ -14079,11 +14225,11 @@
       <c r="A14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="181" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
+      <c r="B14" s="183" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14104,7 +14250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14128,28 +14274,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>89</v>
@@ -14170,25 +14316,25 @@
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="128"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -14201,7 +14347,7 @@
       <c r="D8" s="127"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="205" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="159" t="s">
@@ -14213,64 +14359,64 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="204"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="155"/>
       <c r="D10" s="149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="204"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="159"/>
       <c r="C11" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="149" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="149" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A12" s="204"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="159"/>
       <c r="C12" s="155" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="149" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="149" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="13" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A13" s="204"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="144"/>
       <c r="C13" s="146" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="141" t="s">
         <v>408</v>
       </c>
-      <c r="D13" s="141" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="14" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A14" s="204"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="145"/>
       <c r="C14" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="143" t="s">
         <v>410</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="15" customFormat="1" ht="223.5" customHeight="1">
       <c r="A15" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="181" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
+      <c r="B15" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="184"/>
+      <c r="D15" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14291,7 +14437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14314,28 +14460,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="17"/>
@@ -14354,25 +14500,25 @@
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -14385,7 +14531,7 @@
       <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="199" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="139" t="s">
@@ -14397,57 +14543,57 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="138" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="198"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="139"/>
       <c r="C11" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="138" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="138" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A12" s="198"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="139"/>
       <c r="C12" s="140" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="138" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="138" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A13" s="198"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="144"/>
       <c r="C13" s="146" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="141" t="s">
         <v>408</v>
       </c>
-      <c r="D13" s="141" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A14" s="198"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="145"/>
       <c r="C14" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="143" t="s">
         <v>410</v>
       </c>
-      <c r="D14" s="143" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A15" s="198"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="143"/>
       <c r="C15" s="142"/>
       <c r="D15" s="143"/>
@@ -14456,11 +14602,11 @@
       <c r="A16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="181" t="s">
-        <v>419</v>
-      </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
+      <c r="B16" s="183" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="184"/>
+      <c r="D16" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14481,7 +14627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14504,28 +14650,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="17"/>
@@ -14560,11 +14706,11 @@
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -14632,11 +14778,11 @@
       <c r="A14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
     </row>
     <row r="18" ht="187.5" customHeight="1"/>
     <row r="22" ht="44.25" customHeight="1"/>
@@ -14656,7 +14802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14679,28 +14825,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -14735,11 +14881,11 @@
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -14807,11 +14953,11 @@
       <c r="A14" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
     </row>
     <row r="18" ht="187.5" customHeight="1"/>
     <row r="22" ht="44.25" customHeight="1"/>
@@ -14831,7 +14977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14854,32 +15000,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.45" customHeight="1">
       <c r="A1" s="164"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="2" spans="1:6" ht="20.45" customHeight="1">
       <c r="A2" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="210" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="212" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
     </row>
     <row r="3" spans="1:6" ht="20.45" customHeight="1">
       <c r="A3" s="165" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="64"/>
@@ -14891,7 +15037,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
@@ -14912,7 +15058,7 @@
     </row>
     <row r="6" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="58"/>
@@ -14922,13 +15068,13 @@
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="167"/>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
     </row>
     <row r="8" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="165" t="s">
@@ -14959,25 +15105,25 @@
     <row r="10" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="168"/>
       <c r="B10" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
       <c r="F10" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="168"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -14985,11 +15131,11 @@
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -14997,11 +15143,11 @@
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15010,10 +15156,10 @@
       <c r="C14" s="64"/>
       <c r="D14" s="65"/>
       <c r="E14" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15022,10 +15168,10 @@
       <c r="C15" s="64"/>
       <c r="D15" s="65"/>
       <c r="E15" s="65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15034,10 +15180,10 @@
       <c r="C16" s="64"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15046,10 +15192,10 @@
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
       <c r="E17" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="64" t="s">
         <v>456</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15058,10 +15204,10 @@
       <c r="C18" s="64"/>
       <c r="D18" s="65"/>
       <c r="E18" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15069,11 +15215,11 @@
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
       <c r="D19" s="65" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15082,10 +15228,10 @@
       <c r="C20" s="64"/>
       <c r="D20" s="65"/>
       <c r="E20" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20" s="64" t="s">
         <v>481</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15094,7 +15240,7 @@
       <c r="C21" s="64"/>
       <c r="D21" s="65"/>
       <c r="E21" s="65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F21" s="64" t="s">
         <v>117</v>
@@ -15106,7 +15252,7 @@
       <c r="C22" s="64"/>
       <c r="D22" s="65"/>
       <c r="E22" s="65" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>118</v>
@@ -15118,7 +15264,7 @@
       <c r="C23" s="64"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>119</v>
@@ -15130,22 +15276,22 @@
       <c r="C24" s="64"/>
       <c r="D24" s="58"/>
       <c r="E24" s="65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A25" s="168"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
       <c r="F25" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15153,11 +15299,11 @@
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15165,11 +15311,11 @@
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -15178,10 +15324,10 @@
       <c r="C28" s="64"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="15" customFormat="1" ht="12">
@@ -15190,10 +15336,10 @@
       <c r="C29" s="64"/>
       <c r="D29" s="65"/>
       <c r="E29" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="15" customFormat="1" ht="12">
@@ -15202,10 +15348,10 @@
       <c r="C30" s="64"/>
       <c r="D30" s="65"/>
       <c r="E30" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="F30" s="64" t="s">
         <v>465</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15214,10 +15360,10 @@
       <c r="C31" s="64"/>
       <c r="D31" s="65"/>
       <c r="E31" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15225,11 +15371,11 @@
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
       <c r="D32" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15238,10 +15384,10 @@
       <c r="C33" s="64"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="12">
@@ -15250,10 +15396,10 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15262,10 +15408,10 @@
       <c r="C35" s="64"/>
       <c r="D35" s="65"/>
       <c r="E35" s="65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15274,17 +15420,17 @@
       <c r="C36" s="64"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="F36" s="64" t="s">
         <v>456</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="168"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
@@ -15295,11 +15441,11 @@
       <c r="B38" s="64"/>
       <c r="C38" s="58"/>
       <c r="D38" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E38" s="58"/>
       <c r="F38" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15307,11 +15453,11 @@
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
       <c r="D39" s="65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15320,10 +15466,10 @@
       <c r="C40" s="64"/>
       <c r="D40" s="65"/>
       <c r="E40" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15332,10 +15478,10 @@
       <c r="C41" s="64"/>
       <c r="D41" s="65"/>
       <c r="E41" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15344,10 +15490,10 @@
       <c r="C42" s="64"/>
       <c r="D42" s="58"/>
       <c r="E42" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="F42" s="64" t="s">
         <v>465</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15356,10 +15502,10 @@
       <c r="C43" s="64"/>
       <c r="D43" s="58"/>
       <c r="E43" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15367,11 +15513,11 @@
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
       <c r="D44" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15380,10 +15526,10 @@
       <c r="C45" s="64"/>
       <c r="D45" s="58"/>
       <c r="E45" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15392,10 +15538,10 @@
       <c r="C46" s="64"/>
       <c r="D46" s="58"/>
       <c r="E46" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15404,10 +15550,10 @@
       <c r="C47" s="64"/>
       <c r="D47" s="58"/>
       <c r="E47" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="F47" s="64" t="s">
         <v>465</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15416,22 +15562,22 @@
       <c r="C48" s="64"/>
       <c r="D48" s="58"/>
       <c r="E48" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="168"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
       <c r="F49" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15439,11 +15585,11 @@
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
       <c r="D50" s="65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15451,11 +15597,11 @@
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
       <c r="D51" s="65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15464,10 +15610,10 @@
       <c r="C52" s="64"/>
       <c r="D52" s="58"/>
       <c r="E52" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15476,10 +15622,10 @@
       <c r="C53" s="64"/>
       <c r="D53" s="58"/>
       <c r="E53" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15488,10 +15634,10 @@
       <c r="C54" s="64"/>
       <c r="D54" s="58"/>
       <c r="E54" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="F54" s="64" t="s">
         <v>465</v>
-      </c>
-      <c r="F54" s="64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15500,10 +15646,10 @@
       <c r="C55" s="64"/>
       <c r="D55" s="58"/>
       <c r="E55" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15511,11 +15657,11 @@
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
       <c r="D56" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E56" s="58"/>
       <c r="F56" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15524,10 +15670,10 @@
       <c r="C57" s="64"/>
       <c r="D57" s="58"/>
       <c r="E57" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15536,10 +15682,10 @@
       <c r="C58" s="64"/>
       <c r="D58" s="58"/>
       <c r="E58" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15548,10 +15694,10 @@
       <c r="C59" s="64"/>
       <c r="D59" s="58"/>
       <c r="E59" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="F59" s="64" t="s">
         <v>465</v>
-      </c>
-      <c r="F59" s="64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -15560,23 +15706,23 @@
       <c r="C60" s="64"/>
       <c r="D60" s="58"/>
       <c r="E60" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="409.5" customHeight="1">
       <c r="A61" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="206" t="s">
-        <v>473</v>
-      </c>
-      <c r="C61" s="206"/>
-      <c r="D61" s="206"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="206"/>
+      <c r="B61" s="208" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="208"/>
+      <c r="D61" s="208"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15584,213 +15730,6 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B7:F7"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IU25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33" style="15" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
-    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="177" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="175" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-    </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A10" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A17" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
-    </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
-    <row r="25" spans="1:4" s="15" customFormat="1" ht="44.25" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -15824,28 +15763,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -15877,7 +15816,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="50"/>
@@ -15892,11 +15831,11 @@
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="13" t="s">
@@ -15933,7 +15872,7 @@
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="64" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="64" t="s">
@@ -15984,11 +15923,11 @@
       <c r="A17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="178" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="B17" s="180" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
     </row>
     <row r="21" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -16031,28 +15970,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="17"/>
@@ -16069,11 +16008,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -16110,11 +16049,11 @@
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="60"/>
       <c r="B9" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -16124,7 +16063,7 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
@@ -16179,11 +16118,11 @@
       <c r="A16" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="B16" s="180" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
     </row>
     <row r="20" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="24" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -16212,7 +16151,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16226,28 +16165,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -16279,7 +16218,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="50"/>
@@ -16294,11 +16233,11 @@
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="13" t="s">
@@ -16335,7 +16274,7 @@
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="64" t="s">
@@ -16386,11 +16325,11 @@
       <c r="A17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="178" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="B17" s="180" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
     </row>
     <row r="21" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -16419,7 +16358,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17:D17"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16433,28 +16372,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -16486,7 +16425,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="50"/>
@@ -16501,11 +16440,11 @@
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="13" t="s">
@@ -16542,7 +16481,7 @@
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="64" t="s">
@@ -16593,11 +16532,11 @@
       <c r="A17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="178" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="B17" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
     </row>
     <row r="21" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -16622,11 +16561,218 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:IU25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="33" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
+    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.45" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+    </row>
+    <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="15" customFormat="1" ht="409.5" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+    </row>
+    <row r="21" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
+    <row r="25" spans="1:4" s="15" customFormat="1" ht="44.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:IU33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16640,28 +16786,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="150" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -16678,11 +16824,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -16846,11 +16992,11 @@
       <c r="A25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="B25" s="180" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
     </row>
     <row r="29" spans="1:4" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="33" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -16870,7 +17016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16879,7 +17025,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13:C13"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16893,21 +17039,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -16950,84 +17096,84 @@
       <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="186" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="95"/>
       <c r="D7" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A8" s="187"/>
+      <c r="B8" s="96" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="185"/>
-      <c r="B8" s="96" t="s">
-        <v>306</v>
       </c>
       <c r="C8" s="95"/>
       <c r="D8" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A9" s="187"/>
+      <c r="B9" s="96" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="96" t="s">
-        <v>308</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A10" s="187"/>
+      <c r="B10" s="96" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="96" t="s">
-        <v>310</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A11" s="187"/>
+      <c r="B11" s="96" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A11" s="185"/>
-      <c r="B11" s="96" t="s">
-        <v>312</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="190"/>
+      <c r="B12" s="49" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="188"/>
-      <c r="B12" s="49" t="s">
-        <v>314</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="15" customFormat="1" ht="81.75" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="186" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="187"/>
+      <c r="B13" s="188" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="189"/>
       <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
     </row>
     <row r="15" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A15" s="13" t="s">
@@ -17055,11 +17201,11 @@
       <c r="A17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17079,7 +17225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17102,28 +17248,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="17"/>
@@ -17150,11 +17296,11 @@
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -17182,11 +17328,11 @@
       <c r="A9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17204,7 +17350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17227,21 +17373,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -17284,11 +17430,11 @@
       <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="186" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>156</v>
@@ -17296,9 +17442,9 @@
       <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="185"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>157</v>
@@ -17309,19 +17455,19 @@
       <c r="A9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="186" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="187"/>
+      <c r="B9" s="188" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="189"/>
       <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -17349,11 +17495,11 @@
       <c r="A13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17382,7 +17528,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15:D15"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -17396,21 +17542,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -17434,11 +17580,11 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -17465,17 +17611,17 @@
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="60"/>
       <c r="B8" s="134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="133"/>
       <c r="D8" s="134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="60"/>
       <c r="B9" s="134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="134"/>
@@ -17484,61 +17630,61 @@
       <c r="A10" s="60"/>
       <c r="B10" s="134"/>
       <c r="C10" s="133" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="134" t="s">
         <v>391</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="60"/>
       <c r="B11" s="134"/>
       <c r="C11" s="133" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="134" t="s">
         <v>393</v>
-      </c>
-      <c r="D11" s="134" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="60"/>
       <c r="B12" s="134"/>
       <c r="C12" s="133" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="134" t="s">
         <v>395</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A13" s="60"/>
       <c r="B13" s="134"/>
       <c r="C13" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="134" t="s">
         <v>397</v>
-      </c>
-      <c r="D13" s="134" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A14" s="60"/>
       <c r="B14" s="134"/>
       <c r="C14" s="133" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="134" t="s">
         <v>399</v>
-      </c>
-      <c r="D14" s="134" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="15" customFormat="1" ht="258" customHeight="1">
       <c r="A15" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="178" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="B15" s="180" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
     </row>
     <row r="19" s="15" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="23" s="15" customFormat="1" ht="44.25" customHeight="1"/>
@@ -17581,21 +17727,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -17638,7 +17784,7 @@
       <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="186" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -17650,7 +17796,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="185"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="88" t="s">
         <v>282</v>
       </c>
@@ -17660,7 +17806,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="185"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="88" t="s">
         <v>247</v>
       </c>
@@ -17673,19 +17819,19 @@
       <c r="A10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="87"/>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
     </row>
     <row r="12" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="13" t="s">
@@ -17713,11 +17859,11 @@
       <c r="A14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17760,21 +17906,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -17817,7 +17963,7 @@
       <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="186" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -17829,7 +17975,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="188"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="88" t="s">
         <v>244</v>
       </c>
@@ -17842,19 +17988,19 @@
       <c r="A9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="188" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="187"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="87"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
     </row>
     <row r="11" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -17882,11 +18028,11 @@
       <c r="A13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17929,28 +18075,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="17"/>
@@ -18001,19 +18147,19 @@
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="87"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -18041,11 +18187,11 @@
       <c r="A12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18074,7 +18220,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B29" sqref="B29"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -18089,21 +18235,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="151"/>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="152" t="s">
@@ -18153,27 +18299,25 @@
         <v>254</v>
       </c>
       <c r="C7" s="155"/>
-      <c r="D7" s="155" t="s">
-        <v>256</v>
-      </c>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" spans="1:4" s="148" customFormat="1" ht="50.25" customHeight="1">
       <c r="A8" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="195"/>
       <c r="D8" s="155"/>
     </row>
     <row r="9" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
     </row>
     <row r="10" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="152" t="s">
@@ -18201,11 +18345,11 @@
       <c r="A12" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18229,126 +18373,149 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU10"/>
+  <dimension ref="A1:IU12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="B29" sqref="B29"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="15" customWidth="1"/>
-    <col min="5" max="255" width="19.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="148" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="148" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="148" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="148" customWidth="1"/>
+    <col min="5" max="255" width="19.5703125" style="148" customWidth="1"/>
+    <col min="256" max="16384" width="19.5703125" style="147"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="175" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="193" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="136" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="174"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
+      <c r="B4" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
     </row>
     <row r="5" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-    </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+    </row>
+    <row r="6" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A6" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-    </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="175" t="s">
+      <c r="B6" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+    </row>
+    <row r="7" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A7" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+    </row>
+    <row r="8" spans="1:4" s="148" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A8" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="194" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="195"/>
+      <c r="D8" s="174"/>
+    </row>
+    <row r="9" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A9" s="153"/>
+      <c r="B9" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+    </row>
+    <row r="10" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A10" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B10" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-    </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+    </row>
+    <row r="11" spans="1:4" s="148" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A11" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B11" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="174"/>
+      <c r="D11" s="149" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A10" s="90" t="s">
+    <row r="12" spans="1:4" s="148" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A12" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B12" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="198"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
